--- a/data/trans_orig/P14B24_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>21986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13773</v>
+        <v>14307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32009</v>
+        <v>32585</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0194911045652421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01220995085213894</v>
+        <v>0.01268363325628971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02837643765714087</v>
+        <v>0.02888709300253854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -763,19 +763,19 @@
         <v>95392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75758</v>
+        <v>76606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116075</v>
+        <v>115966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07573457546744908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06014629826071987</v>
+        <v>0.0608199134756096</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0921552221412751</v>
+        <v>0.09206879747742236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -784,19 +784,19 @@
         <v>117378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97590</v>
+        <v>96843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141296</v>
+        <v>142753</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04916245475246658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0408744859095314</v>
+        <v>0.040561686145287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05918028810804184</v>
+        <v>0.05979056436804204</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1106011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1095988</v>
+        <v>1095412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1114224</v>
+        <v>1113690</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9805088954347579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9716235623428592</v>
+        <v>0.9711129069974622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9877900491478613</v>
+        <v>0.9873163667437107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1104</v>
@@ -834,19 +834,19 @@
         <v>1164169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1143486</v>
+        <v>1143595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1183803</v>
+        <v>1182955</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9242654245325509</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9078447778587247</v>
+        <v>0.9079312025225776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9398537017392801</v>
+        <v>0.9391800865243903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2148</v>
@@ -855,19 +855,19 @@
         <v>2270180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2246262</v>
+        <v>2244805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2289968</v>
+        <v>2290715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9508375452475334</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9408197118919583</v>
+        <v>0.940209435631958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9591255140904689</v>
+        <v>0.9594383138547131</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4109</v>
+        <v>3668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15613</v>
+        <v>15416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009139768391354582</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004525943336352173</v>
+        <v>0.004040395787353176</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01719631371706071</v>
+        <v>0.01697921864916944</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -980,19 +980,19 @@
         <v>23378</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15249</v>
+        <v>15135</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33738</v>
+        <v>33722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02322753699586008</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01515134350252894</v>
+        <v>0.01503758236059238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03352114011914527</v>
+        <v>0.03350504791660953</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1001,19 +1001,19 @@
         <v>31676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21567</v>
+        <v>21684</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44489</v>
+        <v>43547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01654626730111961</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01126586815089063</v>
+        <v>0.01132655731520231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02323919462572549</v>
+        <v>0.02274695686763124</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>899625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892310</v>
+        <v>892507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903814</v>
+        <v>904255</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908602316086454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9828036862829392</v>
+        <v>0.9830207813508306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9954740566636479</v>
+        <v>0.995959604212646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>928</v>
@@ -1051,19 +1051,19 @@
         <v>983097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>972737</v>
+        <v>972753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>991226</v>
+        <v>991340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9767724630041399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9664788598808547</v>
+        <v>0.9664949520833904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9848486564974711</v>
+        <v>0.9849624176394081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1800</v>
@@ -1072,19 +1072,19 @@
         <v>1882723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1869910</v>
+        <v>1870852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1892832</v>
+        <v>1892715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9834537326988804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9767608053742746</v>
+        <v>0.9772530431323688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9887341318491094</v>
+        <v>0.9886734426847977</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>4903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1855</v>
+        <v>1878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11654</v>
+        <v>11657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005952214725772496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002251896870413781</v>
+        <v>0.002280015129525439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01414743435453437</v>
+        <v>0.01415143531170245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1197,19 +1197,19 @@
         <v>15666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8634</v>
+        <v>9276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25603</v>
+        <v>25457</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02031725949651012</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01119762354674748</v>
+        <v>0.01203002175646852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03320447003192267</v>
+        <v>0.03301573351931478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1218,19 +1218,19 @@
         <v>20569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12037</v>
+        <v>12955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33887</v>
+        <v>31947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01289739139629176</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007547618862821045</v>
+        <v>0.008123272020409999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02124799215836228</v>
+        <v>0.020031679363937</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>818856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>812105</v>
+        <v>812102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>821904</v>
+        <v>821881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9940477852742275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858525656454656</v>
+        <v>0.9858485646882977</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977481031295863</v>
+        <v>0.9977199848704746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>714</v>
@@ -1268,19 +1268,19 @@
         <v>755393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>745456</v>
+        <v>745602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>762425</v>
+        <v>761783</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9796827405034899</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9667955299680773</v>
+        <v>0.9669842664806851</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888023764532524</v>
+        <v>0.9879699782435315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1496</v>
@@ -1289,19 +1289,19 @@
         <v>1574249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1560931</v>
+        <v>1562871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1582781</v>
+        <v>1581863</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9871026086037082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9787520078416377</v>
+        <v>0.9799683206360631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9924523811371789</v>
+        <v>0.9918767279795901</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4322</v>
+        <v>5140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0017995638849836</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008530598954963785</v>
+        <v>0.01014344742715196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1414,19 +1414,19 @@
         <v>10206</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5383</v>
+        <v>5561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18734</v>
+        <v>18322</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02084062895305104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01099221773459421</v>
+        <v>0.0113561263626933</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03825674958578724</v>
+        <v>0.03741571908156692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1435,19 +1435,19 @@
         <v>11117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5940</v>
+        <v>5925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19119</v>
+        <v>19832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01115763034868907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005961514325236577</v>
+        <v>0.005946071642401732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01918781433009163</v>
+        <v>0.01990324784502777</v>
       </c>
     </row>
     <row r="14">
@@ -1464,7 +1464,7 @@
         <v>505789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502379</v>
+        <v>501561</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -1473,7 +1473,7 @@
         <v>0.9982004361150164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9914694010450368</v>
+        <v>0.9898565525728474</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1485,19 +1485,19 @@
         <v>479492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>470964</v>
+        <v>471376</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484315</v>
+        <v>484137</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9791593710469489</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9617432504142139</v>
+        <v>0.9625842809184332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.989007782265406</v>
+        <v>0.9886438736373068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -1506,19 +1506,19 @@
         <v>985281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>977279</v>
+        <v>976566</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>990458</v>
+        <v>990473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9888423696513109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9808121856699081</v>
+        <v>0.9800967521549723</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9940384856747634</v>
+        <v>0.9940539283575983</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>36099</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26127</v>
+        <v>25887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49295</v>
+        <v>49967</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01072343145381216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007761050984494415</v>
+        <v>0.007689941212343045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01464317802155315</v>
+        <v>0.01484290629910915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -1631,19 +1631,19 @@
         <v>144642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122110</v>
+        <v>123598</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172585</v>
+        <v>170957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04101223757568447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03462341557837361</v>
+        <v>0.03504541597710065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04893533140230109</v>
+        <v>0.04847387407327754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>167</v>
@@ -1652,19 +1652,19 @@
         <v>180741</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155415</v>
+        <v>156132</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210632</v>
+        <v>208573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02622026114104613</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02254628047423686</v>
+        <v>0.02265019963623311</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03055664193908352</v>
+        <v>0.03025793665896584</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3330282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3317086</v>
+        <v>3316414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3340254</v>
+        <v>3340494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9892765685461878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9853568219784469</v>
+        <v>0.9851570937008909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9922389490155061</v>
+        <v>0.9923100587876571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3191</v>
@@ -1702,19 +1702,19 @@
         <v>3382150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3354207</v>
+        <v>3355835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3404682</v>
+        <v>3403194</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9589877624243155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.951064668597699</v>
+        <v>0.9515261259267226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9653765844216264</v>
+        <v>0.9649545840228994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6359</v>
@@ -1723,19 +1723,19 @@
         <v>6712432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6682541</v>
+        <v>6684600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6737758</v>
+        <v>6737041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9737797388589539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9694433580609165</v>
+        <v>0.9697420633410343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9774537195257631</v>
+        <v>0.977349800363767</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>38007</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28210</v>
+        <v>27277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51228</v>
+        <v>51753</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07666366925867396</v>
+        <v>0.07666366925867395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05690183377031424</v>
+        <v>0.05501911588115205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1033314201091283</v>
+        <v>0.1043901909808354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -2088,19 +2088,19 @@
         <v>66709</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53329</v>
+        <v>54658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80948</v>
+        <v>80887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1069775028167459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08552148542643304</v>
+        <v>0.08765247224481509</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1298118413306096</v>
+        <v>0.1297141259233015</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -2109,19 +2109,19 @@
         <v>104716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88541</v>
+        <v>88552</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123838</v>
+        <v>123958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09355128895798046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07910028581066254</v>
+        <v>0.07911055588759074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1106341833789394</v>
+        <v>0.1107414217895661</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>457760</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>444539</v>
+        <v>444014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>467557</v>
+        <v>468490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.923336330741326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8966685798908716</v>
+        <v>0.8956098090191645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9430981662296858</v>
+        <v>0.9449808841188478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>762</v>
@@ -2159,19 +2159,19 @@
         <v>556871</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>542632</v>
+        <v>542693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>570251</v>
+        <v>568922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.893022497183254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8701881586693904</v>
+        <v>0.8702858740766984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.914478514573567</v>
+        <v>0.9123475277551847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1176</v>
@@ -2180,19 +2180,19 @@
         <v>1014631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>995509</v>
+        <v>995389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1030806</v>
+        <v>1030795</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9064487110420196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8893658166210605</v>
+        <v>0.8892585782104337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9208997141893382</v>
+        <v>0.9208894441124094</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>16971</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10335</v>
+        <v>10143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28809</v>
+        <v>26876</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01767571654663947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01076366965501128</v>
+        <v>0.01056459231324487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0300053083544819</v>
+        <v>0.02799182663943927</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -2305,19 +2305,19 @@
         <v>64948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52978</v>
+        <v>53342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80313</v>
+        <v>80007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05831910926606113</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04757084210315615</v>
+        <v>0.04789813727869291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07211569009464949</v>
+        <v>0.07184147807012921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -2326,19 +2326,19 @@
         <v>81919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67622</v>
+        <v>67456</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100897</v>
+        <v>99132</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0395018784086791</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03260780726466594</v>
+        <v>0.03252766842911043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04865328581047525</v>
+        <v>0.04780203966811997</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>943166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>931328</v>
+        <v>933261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>949802</v>
+        <v>949994</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9823242834533606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9699946916455182</v>
+        <v>0.9720081733605608</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9892363303449889</v>
+        <v>0.9894354076867551</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1506</v>
@@ -2376,19 +2376,19 @@
         <v>1048717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1033352</v>
+        <v>1033658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1060687</v>
+        <v>1060323</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.941680890733939</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9278843099053506</v>
+        <v>0.9281585219298709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.952429157896844</v>
+        <v>0.9521018627213073</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2397</v>
@@ -2397,19 +2397,19 @@
         <v>1991883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1972905</v>
+        <v>1974670</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2006180</v>
+        <v>2006346</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.960498121591321</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9513467141895248</v>
+        <v>0.9521979603318801</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9673921927353342</v>
+        <v>0.9674723315708896</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>16378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10003</v>
+        <v>10022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25771</v>
+        <v>26707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01566780799351044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009569164061577783</v>
+        <v>0.009587213481826642</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02465332916368775</v>
+        <v>0.02554875634655954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -2522,19 +2522,19 @@
         <v>54028</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41442</v>
+        <v>42254</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68418</v>
+        <v>69508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05163681991956939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03960765349243073</v>
+        <v>0.04038402603686905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06539024270993893</v>
+        <v>0.06643185566694274</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -2543,19 +2543,19 @@
         <v>70406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56503</v>
+        <v>55982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88452</v>
+        <v>87614</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03366048947735103</v>
+        <v>0.03366048947735104</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02701362796958084</v>
+        <v>0.02676437587094424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04228794443613058</v>
+        <v>0.04188750600098993</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>1028974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1019581</v>
+        <v>1018645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1035349</v>
+        <v>1035330</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9843321920064896</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9753466708363123</v>
+        <v>0.9744512436534404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.990430835938422</v>
+        <v>0.9904127865181731</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1441</v>
@@ -2593,19 +2593,19 @@
         <v>992275</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>977885</v>
+        <v>976795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1004861</v>
+        <v>1004049</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9483631800804306</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346097572900606</v>
+        <v>0.9335681443330567</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9603923465075691</v>
+        <v>0.9596159739631308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2451</v>
@@ -2614,19 +2614,19 @@
         <v>2021249</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2003203</v>
+        <v>2004041</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2035152</v>
+        <v>2035673</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.966339510522649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9577120555638692</v>
+        <v>0.95811249399901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.972986372030419</v>
+        <v>0.9732356241290557</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>21823</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13563</v>
+        <v>13624</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36730</v>
+        <v>35302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02236117831160839</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01389714893271115</v>
+        <v>0.01395993282607615</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03763544046289601</v>
+        <v>0.03617271083249291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -2739,19 +2739,19 @@
         <v>42339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32765</v>
+        <v>33211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54402</v>
+        <v>53846</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04661624111019566</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03607527956779046</v>
+        <v>0.03656562922918614</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0598979758260395</v>
+        <v>0.05928570206887417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -2760,19 +2760,19 @@
         <v>64162</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50523</v>
+        <v>50616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81325</v>
+        <v>81142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03405309697068826</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02681443989560384</v>
+        <v>0.02686354233986258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04316213630614641</v>
+        <v>0.04306478983137058</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>954106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>939199</v>
+        <v>940627</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>962366</v>
+        <v>962305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9776388216883917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9623645595371041</v>
+        <v>0.9638272891675066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9861028510672891</v>
+        <v>0.9860400671739238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1255</v>
@@ -2810,19 +2810,19 @@
         <v>865912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>853849</v>
+        <v>854405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>875486</v>
+        <v>875040</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9533837588898044</v>
+        <v>0.9533837588898043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9401020241739605</v>
+        <v>0.9407142979311258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9639247204322096</v>
+        <v>0.9634343707708138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2182</v>
@@ -2831,19 +2831,19 @@
         <v>1820018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1802855</v>
+        <v>1803038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1833657</v>
+        <v>1833564</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9659469030293117</v>
+        <v>0.9659469030293115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9568378636938536</v>
+        <v>0.9569352101686293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9731855601043965</v>
+        <v>0.9731364576601373</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>93180</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75240</v>
+        <v>73905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112510</v>
+        <v>113926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02679745796475752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02163831010545988</v>
+        <v>0.02125413428457058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03235659764572384</v>
+        <v>0.0327638533752457</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>335</v>
@@ -2956,19 +2956,19 @@
         <v>228024</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>202001</v>
+        <v>203629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>255228</v>
+        <v>252608</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06176501138239202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05471607200755225</v>
+        <v>0.0551572552273501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06913382036694404</v>
+        <v>0.06842415450304183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -2977,19 +2977,19 @@
         <v>321204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>288692</v>
+        <v>288646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355446</v>
+        <v>357794</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04480463827360735</v>
+        <v>0.04480463827360734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04026960072039427</v>
+        <v>0.04026320570420273</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04958107972705756</v>
+        <v>0.04990858194292697</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3384005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3364675</v>
+        <v>3363259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3401945</v>
+        <v>3403280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9732025420352425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9676434023542761</v>
+        <v>0.9672361466247545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9783616898945401</v>
+        <v>0.9787458657154297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4964</v>
@@ -3027,19 +3027,19 @@
         <v>3463775</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436571</v>
+        <v>3439191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3489798</v>
+        <v>3488170</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9382349886176079</v>
+        <v>0.9382349886176078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9308661796330557</v>
+        <v>0.9315758454969573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9452839279924478</v>
+        <v>0.9448427447726497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8206</v>
@@ -3048,19 +3048,19 @@
         <v>6847780</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6813538</v>
+        <v>6811190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6880292</v>
+        <v>6880338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9551953617263927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9504189202729424</v>
+        <v>0.9500914180570731</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9597303992796056</v>
+        <v>0.9597367942957971</v>
       </c>
     </row>
     <row r="18">
